--- a/LeetCode Daily [ INDEX ].xlsx
+++ b/LeetCode Daily [ INDEX ].xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\LeetCode_Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300B1F35-5992-4BC0-B812-738CD06DE143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B040CB-9835-4D48-BEFB-51381B24BC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1104" yWindow="4116" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="90">
   <si>
     <t>Problem Name</t>
   </si>
@@ -69,35 +69,239 @@
     <t>1'st April 2022.</t>
   </si>
   <si>
-    <t xml:space="preserve">410 . Split Array Largest Sum </t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>Array, Binary Search ,DP ,Greedy</t>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>680 . Valid Palindrome ||</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1721 . Swapping Nodes in a LinkedList</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>LinkedList , Two Pointers</t>
+  </si>
+  <si>
+    <t>31 . Next Permutation</t>
+  </si>
+  <si>
+    <t>Arrays , Two Pointers</t>
+  </si>
+  <si>
+    <t>String , Greedy , Two Pointers</t>
+  </si>
+  <si>
+    <t>923. 3Sum With Multiplicity</t>
+  </si>
+  <si>
+    <t>HashMap , Arrays , Two Pointers</t>
+  </si>
+  <si>
+    <t>11. Container With Most Water</t>
+  </si>
+  <si>
+    <t>Arrays , Two Pointers ,Greedy</t>
+  </si>
+  <si>
+    <t>344. Reverse String</t>
+  </si>
+  <si>
+    <t>String , Two Pointers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ GFG ]   Reverse a String Using Stack </t>
+  </si>
+  <si>
+    <t>1046. Last Stone Weight</t>
+  </si>
+  <si>
+    <t>Priority-Queue(Max Heap) , Arrays</t>
+  </si>
+  <si>
+    <t>538. Convert BST to Greater Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree </t>
+  </si>
+  <si>
+    <t>HashMap , Sorting ,Greedy</t>
+  </si>
+  <si>
+    <t>1679 . Max Number of K-Sum Pairs</t>
+  </si>
+  <si>
+    <t>1480. Running Sum of 1d Array</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>304. Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>867. Transpose Matrix</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>PrefixSum, Matrix,DP</t>
+  </si>
+  <si>
+    <t>51. N-Queens</t>
+  </si>
+  <si>
+    <t>Backtracking,Matrix</t>
   </si>
   <si>
     <t>Hard</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>680 . Valid Palindrome ||</t>
-  </si>
-  <si>
-    <t>String , Greedy , Two-Pointers</t>
-  </si>
-  <si>
-    <t>Easy</t>
+    <t>52. N-Queens II</t>
+  </si>
+  <si>
+    <t>160. Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>LinkedList,HashSet,Two-Pointers</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Two-Pointers,Array</t>
+  </si>
+  <si>
+    <t>509. Fibonacci Number</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>473. Matchsticks to Square</t>
+  </si>
+  <si>
+    <t>DP,Backtracking,Array,DFS</t>
+  </si>
+  <si>
+    <t>102. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>BFS,Tree</t>
+  </si>
+  <si>
+    <t>199. Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>DFS,Tree</t>
+  </si>
+  <si>
+    <t>695. Max Area of Island</t>
+  </si>
+  <si>
+    <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>HashMap,Tree,Divide &amp; Conqure</t>
+  </si>
+  <si>
+    <t>DFS,Matrix</t>
+  </si>
+  <si>
+    <t>92. Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>86. Partition List</t>
+  </si>
+  <si>
+    <t>315. Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Sorting(MergeSort), Divide &amp; Conqure</t>
+  </si>
+  <si>
+    <t>378. Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Priority Queue(Max Heap), Matrix , BinarySearch ,UpperBound</t>
+  </si>
+  <si>
+    <t>377. Combination Sum IV</t>
+  </si>
+  <si>
+    <t>DP,Permutation/Combination</t>
+  </si>
+  <si>
+    <t>1220. Count Vowels Permutation</t>
+  </si>
+  <si>
+    <t>DP,Strings,HashMap</t>
+  </si>
+  <si>
+    <t>300. Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>DP,Binary Search</t>
+  </si>
+  <si>
+    <t>13. Roman to Integer</t>
+  </si>
+  <si>
+    <t>HashMap,Strings</t>
+  </si>
+  <si>
+    <t>387. First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>48. Rotate Image</t>
+  </si>
+  <si>
+    <t>[September 2022]</t>
+  </si>
+  <si>
+    <t>429. N-ary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Trees,Queue</t>
+  </si>
+  <si>
+    <t>1457. Pseudo-Palindromic Paths in a Binary Tree</t>
+  </si>
+  <si>
+    <t>BinaryTree</t>
+  </si>
+  <si>
+    <t>[October 2022]</t>
+  </si>
+  <si>
+    <t>[November 2022]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String , HashTable , Priority Queue , Bucket Sort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">692. Top K Frequent Words </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +372,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,6 +467,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -336,6 +561,71 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2219126</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>107040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2222726</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>111000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CDB830-8BDB-8D41-8477-881D93228CD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5408640" y="14683011"/>
+            <a:ext cx="3600" cy="3960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CDB830-8BDB-8D41-8477-881D93228CD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5400000" y="14674011"/>
+              <a:ext cx="21240" cy="21600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -363,6 +653,33 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3 5 80,'0'-2'280,"0"-1"-192,-2 6-396</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-06-04T07:15:50.019"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7 10 124,'2'0'200,"-2"-2"36,-2 2-176,2-5 60,-3 5-140,0-3 28</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -629,16 +946,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M224"/>
+  <dimension ref="A3:M272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="D197" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.109375" customWidth="1"/>
     <col min="7" max="7" width="62.77734375" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" customWidth="1"/>
@@ -701,19 +1018,22 @@
         <v>44652</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -724,19 +1044,19 @@
         <v>44653</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -746,9 +1066,21 @@
       <c r="B12" s="2">
         <v>44654</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -757,9 +1089,24 @@
       <c r="B13" s="2">
         <v>44655</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -768,9 +1115,21 @@
       <c r="B14" s="2">
         <v>44656</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -779,9 +1138,21 @@
       <c r="B15" s="2">
         <v>44657</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -790,9 +1161,21 @@
       <c r="B16" s="2">
         <v>44658</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="G16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -890,9 +1273,21 @@
       <c r="B25" s="2">
         <v>44667</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="G25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="D25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -934,6 +1329,7 @@
       <c r="B29" s="2">
         <v>44671</v>
       </c>
+      <c r="G29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -953,7 +1349,6 @@
         <v>44673</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="G31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -967,7 +1362,7 @@
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>24</v>
       </c>
@@ -978,7 +1373,7 @@
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>25</v>
       </c>
@@ -989,7 +1384,7 @@
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>26</v>
       </c>
@@ -1000,7 +1395,7 @@
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>27</v>
       </c>
@@ -1011,7 +1406,7 @@
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>28</v>
       </c>
@@ -1022,7 +1417,7 @@
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>29</v>
       </c>
@@ -1033,7 +1428,7 @@
       <c r="G38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>30</v>
       </c>
@@ -1044,13 +1439,13 @@
       <c r="G39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="D40" s="3"/>
       <c r="G40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1453,7 @@
       <c r="G41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>31</v>
       </c>
@@ -1069,7 +1464,7 @@
       <c r="G42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>32</v>
       </c>
@@ -1080,7 +1475,7 @@
       <c r="G43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>33</v>
       </c>
@@ -1091,16 +1486,30 @@
       <c r="G44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>34</v>
       </c>
       <c r="B45" s="2">
         <v>44685</v>
       </c>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>35</v>
       </c>
@@ -1109,7 +1518,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>36</v>
       </c>
@@ -1118,7 +1527,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>37</v>
       </c>
@@ -1271,7 +1680,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>54</v>
       </c>
@@ -1280,7 +1689,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>55</v>
       </c>
@@ -1289,7 +1698,7 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>56</v>
       </c>
@@ -1298,7 +1707,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>57</v>
       </c>
@@ -1307,7 +1716,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>58</v>
       </c>
@@ -1316,7 +1725,7 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>59</v>
       </c>
@@ -1325,7 +1734,7 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>60</v>
       </c>
@@ -1334,7 +1743,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>61</v>
       </c>
@@ -1343,79 +1752,177 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>62</v>
       </c>
       <c r="B75" s="2">
         <v>44713</v>
       </c>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>63</v>
       </c>
       <c r="B76" s="2">
         <v>44714</v>
       </c>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D76" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>64</v>
       </c>
       <c r="B77" s="2">
         <v>44715</v>
       </c>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>65</v>
       </c>
       <c r="B78" s="2">
         <v>44716</v>
       </c>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>66</v>
       </c>
       <c r="B79" s="2">
         <v>44717</v>
       </c>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>67</v>
       </c>
       <c r="B80" s="2">
         <v>44718</v>
       </c>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>68</v>
       </c>
       <c r="B81" s="2">
         <v>44719</v>
       </c>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>69</v>
       </c>
@@ -1424,7 +1931,7 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>70</v>
       </c>
@@ -1433,7 +1940,7 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>71</v>
       </c>
@@ -1442,7 +1949,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>72</v>
       </c>
@@ -1451,7 +1958,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>73</v>
       </c>
@@ -1460,7 +1967,7 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>74</v>
       </c>
@@ -1469,7 +1976,7 @@
       </c>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>75</v>
       </c>
@@ -1478,7 +1985,7 @@
       </c>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>76</v>
       </c>
@@ -1487,7 +1994,7 @@
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>77</v>
       </c>
@@ -1496,7 +2003,7 @@
       </c>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>78</v>
       </c>
@@ -1505,7 +2012,7 @@
       </c>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>79</v>
       </c>
@@ -1514,7 +2021,7 @@
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>80</v>
       </c>
@@ -1523,7 +2030,7 @@
       </c>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>81</v>
       </c>
@@ -1532,7 +2039,7 @@
       </c>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>82</v>
       </c>
@@ -1541,7 +2048,7 @@
       </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>83</v>
       </c>
@@ -1550,7 +2057,7 @@
       </c>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>84</v>
       </c>
@@ -1559,7 +2066,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>85</v>
       </c>
@@ -1568,7 +2075,7 @@
       </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>86</v>
       </c>
@@ -1577,7 +2084,7 @@
       </c>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>87</v>
       </c>
@@ -1586,7 +2093,7 @@
       </c>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>88</v>
       </c>
@@ -1595,7 +2102,7 @@
       </c>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>89</v>
       </c>
@@ -1604,7 +2111,7 @@
       </c>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>90</v>
       </c>
@@ -1613,7 +2120,7 @@
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>91</v>
       </c>
@@ -1622,17 +2129,17 @@
       </c>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>92</v>
       </c>
@@ -1641,7 +2148,7 @@
       </c>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>93</v>
       </c>
@@ -1650,7 +2157,7 @@
       </c>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>94</v>
       </c>
@@ -1659,7 +2166,7 @@
       </c>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>95</v>
       </c>
@@ -1668,7 +2175,7 @@
       </c>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>96</v>
       </c>
@@ -1677,97 +2184,193 @@
       </c>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>97</v>
       </c>
       <c r="B112" s="2">
         <v>44748</v>
       </c>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D112" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I112" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>98</v>
       </c>
       <c r="B113" s="2">
         <v>44749</v>
       </c>
+      <c r="F113" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>99</v>
       </c>
       <c r="B114" s="2">
         <v>44750</v>
       </c>
+      <c r="F114" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>100</v>
       </c>
       <c r="B115" s="2">
         <v>44751</v>
       </c>
+      <c r="F115" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>101</v>
       </c>
       <c r="B116" s="2">
         <v>44752</v>
       </c>
+      <c r="F116" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>102</v>
       </c>
       <c r="B117" s="2">
         <v>44753</v>
       </c>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D117" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I117" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>103</v>
       </c>
       <c r="B118" s="2">
         <v>44754</v>
       </c>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D118" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>104</v>
       </c>
       <c r="B119" s="2">
         <v>44755</v>
       </c>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D119" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>105</v>
       </c>
       <c r="B120" s="2">
         <v>44756</v>
       </c>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D120" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I120" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>106</v>
       </c>
       <c r="B121" s="2">
         <v>44757</v>
       </c>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D121" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I121" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>107</v>
       </c>
@@ -1776,7 +2379,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>108</v>
       </c>
@@ -1785,7 +2388,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>109</v>
       </c>
@@ -1794,7 +2397,7 @@
       </c>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>110</v>
       </c>
@@ -1803,7 +2406,7 @@
       </c>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>111</v>
       </c>
@@ -1812,34 +2415,76 @@
       </c>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>112</v>
       </c>
       <c r="B127" s="2">
         <v>44763</v>
       </c>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D127" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I127" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>113</v>
       </c>
       <c r="B128" s="2">
         <v>44764</v>
       </c>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D128" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I128" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>114</v>
       </c>
       <c r="B129" s="2">
         <v>44765</v>
       </c>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D129" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I129" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>115</v>
       </c>
@@ -1848,7 +2493,7 @@
       </c>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>116</v>
       </c>
@@ -1857,7 +2502,7 @@
       </c>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>117</v>
       </c>
@@ -1866,7 +2511,7 @@
       </c>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>118</v>
       </c>
@@ -1875,7 +2520,7 @@
       </c>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>119</v>
       </c>
@@ -1884,7 +2529,7 @@
       </c>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>120</v>
       </c>
@@ -1893,7 +2538,7 @@
       </c>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>121</v>
       </c>
@@ -1902,7 +2547,7 @@
       </c>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>122</v>
       </c>
@@ -1911,16 +2556,16 @@
       </c>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>123</v>
       </c>
@@ -1929,16 +2574,30 @@
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>124</v>
       </c>
       <c r="B141" s="9">
         <v>44775</v>
       </c>
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D141" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I141" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>125</v>
       </c>
@@ -1947,7 +2606,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>126</v>
       </c>
@@ -1956,16 +2615,30 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>127</v>
       </c>
       <c r="B144" s="9">
         <v>44778</v>
       </c>
-      <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D144" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I144" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>128</v>
       </c>
@@ -1974,25 +2647,53 @@
       </c>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>129</v>
       </c>
       <c r="B146" s="9">
         <v>44780</v>
       </c>
-      <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D146" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I146" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>130</v>
       </c>
       <c r="B147" s="9">
         <v>44781</v>
       </c>
-      <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D147" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I147" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>131</v>
       </c>
@@ -2001,7 +2702,7 @@
       </c>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>132</v>
       </c>
@@ -2010,7 +2711,7 @@
       </c>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>133</v>
       </c>
@@ -2019,7 +2720,7 @@
       </c>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>134</v>
       </c>
@@ -2028,7 +2729,7 @@
       </c>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>135</v>
       </c>
@@ -2037,7 +2738,7 @@
       </c>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>136</v>
       </c>
@@ -2046,25 +2747,53 @@
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>137</v>
       </c>
       <c r="B154" s="9">
         <v>44788</v>
       </c>
-      <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D154" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I154" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>138</v>
       </c>
       <c r="B155" s="9">
         <v>44789</v>
       </c>
-      <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D155" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F155" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I155" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>139</v>
       </c>
@@ -2073,7 +2802,7 @@
       </c>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>140</v>
       </c>
@@ -2082,16 +2811,15 @@
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>141</v>
       </c>
       <c r="B158" s="9">
         <v>44792</v>
       </c>
-      <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>142</v>
       </c>
@@ -2099,7 +2827,7 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>143</v>
       </c>
@@ -2107,7 +2835,7 @@
         <v>44794</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>144</v>
       </c>
@@ -2115,7 +2843,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>145</v>
       </c>
@@ -2123,7 +2851,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>146</v>
       </c>
@@ -2131,7 +2859,7 @@
         <v>44797</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>147</v>
       </c>
@@ -2139,7 +2867,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>148</v>
       </c>
@@ -2147,7 +2875,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>149</v>
       </c>
@@ -2155,7 +2883,7 @@
         <v>44800</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>150</v>
       </c>
@@ -2163,7 +2891,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>151</v>
       </c>
@@ -2171,15 +2899,30 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>152</v>
       </c>
       <c r="B169" s="9">
         <v>44803</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D169" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I169" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>153</v>
       </c>
@@ -2187,263 +2930,849 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B173" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174">
         <v>154</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174">
+      <c r="B174" s="9">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175">
         <v>155</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175">
+      <c r="B175" s="9">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176">
         <v>156</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176">
+      <c r="B176" s="9">
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177">
         <v>157</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177">
+      <c r="B177" s="9">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178">
         <v>158</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178">
+      <c r="B178" s="9">
+        <v>44809</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F178" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I178" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179">
         <v>159</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179">
+      <c r="B179" s="9">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180">
         <v>160</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180">
+      <c r="B180" s="9">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181">
         <v>161</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181">
+      <c r="B181" s="9">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182">
         <v>162</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182">
+      <c r="B182" s="9">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183">
         <v>163</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183">
+      <c r="B183" s="9">
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184">
         <v>164</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184">
+      <c r="B184" s="9">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185">
         <v>165</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185">
+      <c r="B185" s="9">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186">
         <v>166</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186">
+      <c r="B186" s="9">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187">
         <v>167</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187">
+      <c r="B187" s="9">
+        <v>44818</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F187" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I187" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188">
         <v>168</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188">
+      <c r="B188" s="9">
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189">
         <v>169</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189">
+      <c r="B189" s="9">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190">
         <v>170</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190">
+      <c r="B190" s="9">
+        <v>44821</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191">
         <v>171</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191">
+      <c r="B191" s="9">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192">
         <v>172</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192" s="9">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>173</v>
+      </c>
+      <c r="B193" s="9">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="B194" s="9">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="B195" s="9">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="B196" s="9">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="B197" s="9">
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="B198" s="9">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="B199" s="9">
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="B200" s="9">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="B201" s="9">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="B202" s="9">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204">
         <v>183</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205">
+      <c r="B203" s="9">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="9"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
         <v>184</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206">
+      <c r="B206" s="9">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
         <v>185</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207">
+      <c r="B207" s="9">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
         <v>186</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208">
+      <c r="B208" s="9">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209">
         <v>187</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209">
+      <c r="B209" s="9">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210">
         <v>188</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210">
+      <c r="B210" s="9">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211">
         <v>189</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211">
+      <c r="B211" s="9">
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212">
         <v>190</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212">
+      <c r="B212" s="9">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213">
         <v>191</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213">
+      <c r="B213" s="9">
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214">
         <v>192</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214">
+      <c r="B214" s="9">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215">
         <v>193</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215">
+      <c r="B215" s="9">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216">
         <v>194</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216">
+      <c r="B216" s="9">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217">
         <v>195</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217">
+      <c r="B217" s="9">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218">
         <v>196</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218">
+      <c r="B218" s="9">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219">
         <v>197</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219">
+      <c r="B219" s="9">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220">
         <v>198</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220">
+      <c r="B220" s="9">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221">
         <v>199</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221">
+      <c r="B221" s="9">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222">
         <v>200</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222">
+      <c r="B222" s="9">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223">
         <v>201</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223">
+      <c r="B223" s="9">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224">
         <v>202</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224">
+      <c r="B224" s="9">
+        <v>44853</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F224" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I224" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
         <v>203</v>
       </c>
+      <c r="B225" s="9">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>204</v>
+      </c>
+      <c r="B226" s="9">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>205</v>
+      </c>
+      <c r="B227" s="9">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>206</v>
+      </c>
+      <c r="B228" s="9">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>207</v>
+      </c>
+      <c r="B229" s="9">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>208</v>
+      </c>
+      <c r="B230" s="9">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>209</v>
+      </c>
+      <c r="B231" s="9">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>210</v>
+      </c>
+      <c r="B232" s="9">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>211</v>
+      </c>
+      <c r="B233" s="9">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>212</v>
+      </c>
+      <c r="B234" s="9">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>213</v>
+      </c>
+      <c r="B235" s="9">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>214</v>
+      </c>
+      <c r="B236" s="9">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B238" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>215</v>
+      </c>
+      <c r="B239" s="9">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>216</v>
+      </c>
+      <c r="B240" s="9">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>217</v>
+      </c>
+      <c r="B241" s="9">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>218</v>
+      </c>
+      <c r="B242" s="9">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>219</v>
+      </c>
+      <c r="B243" s="9">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>220</v>
+      </c>
+      <c r="B244" s="9">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>221</v>
+      </c>
+      <c r="B245" s="9">
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>222</v>
+      </c>
+      <c r="B246" s="9">
+        <v>44873</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>223</v>
+      </c>
+      <c r="B247" s="9">
+        <v>44874</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>224</v>
+      </c>
+      <c r="B248" s="9">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>225</v>
+      </c>
+      <c r="B249" s="9">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>226</v>
+      </c>
+      <c r="B250" s="9">
+        <v>44877</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>227</v>
+      </c>
+      <c r="B251" s="9">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>228</v>
+      </c>
+      <c r="B252" s="9">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>229</v>
+      </c>
+      <c r="B253" s="9">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>230</v>
+      </c>
+      <c r="B254" s="9">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>231</v>
+      </c>
+      <c r="B255" s="9">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>232</v>
+      </c>
+      <c r="B256" s="9">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>233</v>
+      </c>
+      <c r="B257" s="9">
+        <v>44884</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>234</v>
+      </c>
+      <c r="B258" s="9">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>235</v>
+      </c>
+      <c r="B259" s="9">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>236</v>
+      </c>
+      <c r="B260" s="9">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>237</v>
+      </c>
+      <c r="B261" s="9">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>238</v>
+      </c>
+      <c r="B262" s="9">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>239</v>
+      </c>
+      <c r="B263" s="9">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>240</v>
+      </c>
+      <c r="B264" s="9">
+        <v>44891</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>241</v>
+      </c>
+      <c r="B265" s="9">
+        <v>44892</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>242</v>
+      </c>
+      <c r="B266" s="9">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>243</v>
+      </c>
+      <c r="B267" s="9">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>244</v>
+      </c>
+      <c r="B268" s="9">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B269" s="9"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B270" s="9"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B271" s="9"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B272" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" display="Split Array Largest Sum" xr:uid="{0941D929-2C07-4245-9366-F1B0BC05359C}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{19C84280-9CA6-491A-9AE8-24F946E383F3}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{4D758EF8-E0F3-4D21-B0A7-E003E85A3F9A}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{74EB9B63-000B-4032-97E8-CEAC98638CBB}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{BD2085CE-E82D-4D9E-A3BE-61121DA8DA7E}"/>
+    <hyperlink ref="M10" r:id="rId5" xr:uid="{835D4B51-DD12-4418-8C02-9396BCBCA8EA}"/>
+    <hyperlink ref="D16" r:id="rId6" xr:uid="{E66B741B-F2CE-463B-9EF1-0C6D89F3AC5D}"/>
+    <hyperlink ref="D25" r:id="rId7" xr:uid="{E733D5F1-407F-4A9C-AEBD-D95D5DB3A7D8}"/>
+    <hyperlink ref="D45" r:id="rId8" display="Max Number of K-Sum Pairs" xr:uid="{9BAEC576-8FEE-4B6E-9D04-50912112519A}"/>
+    <hyperlink ref="D75" r:id="rId9" xr:uid="{A6749787-3194-4294-896A-7311B1B8574E}"/>
+    <hyperlink ref="D77" r:id="rId10" xr:uid="{F49CD69A-C894-466D-8FF3-220CF383440F}"/>
+    <hyperlink ref="D76" r:id="rId11" xr:uid="{EC5088E5-7DDF-4958-9BAF-FB103DE939A3}"/>
+    <hyperlink ref="D78" r:id="rId12" xr:uid="{8BAAD684-8B66-4791-8756-08CFCA1834A5}"/>
+    <hyperlink ref="D79" r:id="rId13" xr:uid="{226D0D4A-E0DF-4085-A46F-1158C0109E9C}"/>
+    <hyperlink ref="D80" r:id="rId14" xr:uid="{D7114677-2347-4DD7-9887-92E998A711F3}"/>
+    <hyperlink ref="D81" r:id="rId15" xr:uid="{98B1E886-2BCC-45B1-8581-C2F4D6244F99}"/>
+    <hyperlink ref="D112" r:id="rId16" xr:uid="{4129D024-B82E-4A52-BBF7-06B1248CD0DC}"/>
+    <hyperlink ref="D118" r:id="rId17" xr:uid="{6D1B4B53-59B9-4A40-B3E9-833D4105B781}"/>
+    <hyperlink ref="D119" r:id="rId18" xr:uid="{ABD893AC-A684-46AD-A012-C78B35EFE77A}"/>
+    <hyperlink ref="D117" r:id="rId19" xr:uid="{92F4FE8F-C107-4875-B810-02B0EED61440}"/>
+    <hyperlink ref="D121" r:id="rId20" xr:uid="{8762884E-81B0-48E4-99C4-47BCAC288E6C}"/>
+    <hyperlink ref="D120" r:id="rId21" xr:uid="{10136491-7AE9-44D8-B742-460069AA30DA}"/>
+    <hyperlink ref="D127" r:id="rId22" xr:uid="{489C3968-257C-4732-999E-E498E833564B}"/>
+    <hyperlink ref="D128" r:id="rId23" xr:uid="{04148424-8FB0-4C97-A328-F114F10AE2FE}"/>
+    <hyperlink ref="D129" r:id="rId24" xr:uid="{CB3324C1-4014-4530-AD50-700CCF0EB90F}"/>
+    <hyperlink ref="D141" r:id="rId25" xr:uid="{5BEA5A1F-44E8-4D34-A43B-10E54404B684}"/>
+    <hyperlink ref="D144" r:id="rId26" xr:uid="{7FC812DE-5623-4F37-B5FC-F2AB5BF72724}"/>
+    <hyperlink ref="D146" r:id="rId27" xr:uid="{F4468B3A-1D9B-46D9-810B-F9939FE03A25}"/>
+    <hyperlink ref="D147" r:id="rId28" xr:uid="{66249764-EBAB-4DA1-ABCB-6486EAB244B2}"/>
+    <hyperlink ref="D154" r:id="rId29" xr:uid="{2794D8B5-D6B1-4519-A5FE-27E5BCEFF0D9}"/>
+    <hyperlink ref="D155" r:id="rId30" xr:uid="{E8C47992-127D-4A9D-814C-059A52D92933}"/>
+    <hyperlink ref="D169" r:id="rId31" xr:uid="{6F811A1B-CDE4-4930-9533-221CC7458E6D}"/>
+    <hyperlink ref="D178" r:id="rId32" xr:uid="{6AA86A63-66AB-496A-AB6B-D28F36E4231C}"/>
+    <hyperlink ref="D187" r:id="rId33" xr:uid="{AAFC4BE7-071C-49FD-A568-803E89EBF75F}"/>
+    <hyperlink ref="D224" r:id="rId34" display="Top K Frequent Words " xr:uid="{0B61D2BC-3565-415D-915B-11C1AC3EE738}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
+  <drawing r:id="rId36"/>
 </worksheet>
 </file>